--- a/data/input/data_ground_truth_01/proporcionalidades.xlsx
+++ b/data/input/data_ground_truth_01/proporcionalidades.xlsx
@@ -283,7 +283,7 @@
   <dimension ref="A1:X6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G21" activeCellId="0" sqref="G21"/>
+      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -292,395 +292,395 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="Q1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="U1" s="0" t="s">
+      <c r="U1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="W1" s="0" t="s">
+      <c r="W1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="I2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="J2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="K2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="0" t="s">
+      <c r="L2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="0" t="s">
+      <c r="M2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="0" t="s">
+      <c r="N2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="0" t="s">
+      <c r="O2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="0" t="s">
+      <c r="P2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="0" t="s">
+      <c r="Q2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="0" t="s">
+      <c r="R2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="S2" s="0" t="s">
+      <c r="S2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="T2" s="0" t="s">
+      <c r="T2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="U2" s="0" t="s">
+      <c r="U2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="V2" s="0" t="s">
+      <c r="V2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="W2" s="0" t="s">
+      <c r="W2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="X2" s="0" t="s">
+      <c r="X2" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>1100015</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>0.442</v>
-      </c>
-      <c r="C3" s="0" t="n">
+      <c r="B3" s="1" t="n">
+        <v>0.442</v>
+      </c>
+      <c r="C3" s="1" t="n">
         <v>0.347</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>0.211</v>
       </c>
-      <c r="E3" s="0" t="n">
-        <v>0.442</v>
-      </c>
-      <c r="F3" s="0" t="s">
+      <c r="E3" s="1" t="n">
+        <v>0.442</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3" s="1" t="n">
         <v>0.558</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I3" s="0" t="n">
-        <v>0.506</v>
-      </c>
-      <c r="J3" s="0" t="n">
-        <v>0.232</v>
-      </c>
-      <c r="K3" s="0" t="n">
-        <v>0.098</v>
-      </c>
-      <c r="L3" s="0" t="n">
-        <v>0.164</v>
-      </c>
-      <c r="M3" s="0" t="n">
-        <v>0.506</v>
-      </c>
-      <c r="N3" s="0" t="n">
-        <v>0.232</v>
-      </c>
-      <c r="O3" s="0" t="n">
-        <v>0.098</v>
-      </c>
-      <c r="P3" s="0" t="n">
-        <v>0.164</v>
-      </c>
-      <c r="Q3" s="0" t="n">
-        <v>0.506</v>
-      </c>
-      <c r="R3" s="0" t="n">
-        <v>0.232</v>
-      </c>
-      <c r="S3" s="0" t="n">
-        <v>0.098</v>
-      </c>
-      <c r="T3" s="0" t="n">
-        <v>0.164</v>
-      </c>
-      <c r="U3" s="0" t="n">
+      <c r="I3" s="1" t="n">
+        <v>0.506</v>
+      </c>
+      <c r="J3" s="1" t="n">
+        <v>0.232</v>
+      </c>
+      <c r="K3" s="1" t="n">
+        <v>0.098</v>
+      </c>
+      <c r="L3" s="1" t="n">
+        <v>0.164</v>
+      </c>
+      <c r="M3" s="1" t="n">
+        <v>0.506</v>
+      </c>
+      <c r="N3" s="1" t="n">
+        <v>0.232</v>
+      </c>
+      <c r="O3" s="1" t="n">
+        <v>0.098</v>
+      </c>
+      <c r="P3" s="1" t="n">
+        <v>0.164</v>
+      </c>
+      <c r="Q3" s="1" t="n">
+        <v>0.506</v>
+      </c>
+      <c r="R3" s="1" t="n">
+        <v>0.232</v>
+      </c>
+      <c r="S3" s="1" t="n">
+        <v>0.098</v>
+      </c>
+      <c r="T3" s="1" t="n">
+        <v>0.164</v>
+      </c>
+      <c r="U3" s="1" t="n">
         <v>0.738</v>
       </c>
-      <c r="V3" s="0" t="n">
+      <c r="V3" s="1" t="n">
         <v>0.262</v>
       </c>
-      <c r="W3" s="0" t="n">
-        <v>0.442</v>
-      </c>
-      <c r="X3" s="0" t="n">
+      <c r="W3" s="1" t="n">
+        <v>0.442</v>
+      </c>
+      <c r="X3" s="1" t="n">
         <v>0.558</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>1100023</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>0.442</v>
-      </c>
-      <c r="C4" s="0" t="n">
+      <c r="B4" s="1" t="n">
+        <v>0.442</v>
+      </c>
+      <c r="C4" s="1" t="n">
         <v>0.347</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>0.211</v>
       </c>
-      <c r="E4" s="0" t="n">
-        <v>0.442</v>
-      </c>
-      <c r="F4" s="0" t="s">
+      <c r="E4" s="1" t="n">
+        <v>0.442</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4" s="1" t="n">
         <v>0.558</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I4" s="0" t="n">
-        <v>0.506</v>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>0.232</v>
-      </c>
-      <c r="K4" s="0" t="n">
-        <v>0.098</v>
-      </c>
-      <c r="L4" s="0" t="n">
-        <v>0.164</v>
-      </c>
-      <c r="M4" s="0" t="n">
-        <v>0.506</v>
-      </c>
-      <c r="N4" s="0" t="n">
-        <v>0.232</v>
-      </c>
-      <c r="O4" s="0" t="n">
-        <v>0.098</v>
-      </c>
-      <c r="P4" s="0" t="n">
-        <v>0.164</v>
-      </c>
-      <c r="Q4" s="0" t="n">
-        <v>0.506</v>
-      </c>
-      <c r="R4" s="0" t="n">
-        <v>0.232</v>
-      </c>
-      <c r="S4" s="0" t="n">
-        <v>0.098</v>
-      </c>
-      <c r="T4" s="0" t="n">
-        <v>0.164</v>
-      </c>
-      <c r="U4" s="0" t="n">
+      <c r="I4" s="1" t="n">
+        <v>0.506</v>
+      </c>
+      <c r="J4" s="1" t="n">
+        <v>0.232</v>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>0.098</v>
+      </c>
+      <c r="L4" s="1" t="n">
+        <v>0.164</v>
+      </c>
+      <c r="M4" s="1" t="n">
+        <v>0.506</v>
+      </c>
+      <c r="N4" s="1" t="n">
+        <v>0.232</v>
+      </c>
+      <c r="O4" s="1" t="n">
+        <v>0.098</v>
+      </c>
+      <c r="P4" s="1" t="n">
+        <v>0.164</v>
+      </c>
+      <c r="Q4" s="1" t="n">
+        <v>0.506</v>
+      </c>
+      <c r="R4" s="1" t="n">
+        <v>0.232</v>
+      </c>
+      <c r="S4" s="1" t="n">
+        <v>0.098</v>
+      </c>
+      <c r="T4" s="1" t="n">
+        <v>0.164</v>
+      </c>
+      <c r="U4" s="1" t="n">
         <v>0.738</v>
       </c>
-      <c r="V4" s="0" t="n">
+      <c r="V4" s="1" t="n">
         <v>0.262</v>
       </c>
-      <c r="W4" s="0" t="n">
-        <v>0.442</v>
-      </c>
-      <c r="X4" s="0" t="n">
+      <c r="W4" s="1" t="n">
+        <v>0.442</v>
+      </c>
+      <c r="X4" s="1" t="n">
         <v>0.558</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>1100049</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>0.442</v>
-      </c>
-      <c r="C5" s="0" t="n">
+      <c r="B5" s="1" t="n">
+        <v>0.442</v>
+      </c>
+      <c r="C5" s="1" t="n">
         <v>0.347</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="1" t="n">
         <v>0.211</v>
       </c>
-      <c r="E5" s="0" t="n">
-        <v>0.442</v>
-      </c>
-      <c r="F5" s="0" t="s">
+      <c r="E5" s="1" t="n">
+        <v>0.442</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5" s="1" t="n">
         <v>0.558</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="H5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I5" s="0" t="n">
-        <v>0.506</v>
-      </c>
-      <c r="J5" s="0" t="n">
-        <v>0.232</v>
-      </c>
-      <c r="K5" s="0" t="n">
-        <v>0.098</v>
-      </c>
-      <c r="L5" s="0" t="n">
-        <v>0.164</v>
-      </c>
-      <c r="M5" s="0" t="n">
-        <v>0.506</v>
-      </c>
-      <c r="N5" s="0" t="n">
-        <v>0.232</v>
-      </c>
-      <c r="O5" s="0" t="n">
-        <v>0.098</v>
-      </c>
-      <c r="P5" s="0" t="n">
-        <v>0.164</v>
-      </c>
-      <c r="Q5" s="0" t="n">
-        <v>0.506</v>
-      </c>
-      <c r="R5" s="0" t="n">
-        <v>0.232</v>
-      </c>
-      <c r="S5" s="0" t="n">
-        <v>0.098</v>
-      </c>
-      <c r="T5" s="0" t="n">
-        <v>0.164</v>
-      </c>
-      <c r="U5" s="0" t="n">
+      <c r="I5" s="1" t="n">
+        <v>0.506</v>
+      </c>
+      <c r="J5" s="1" t="n">
+        <v>0.232</v>
+      </c>
+      <c r="K5" s="1" t="n">
+        <v>0.098</v>
+      </c>
+      <c r="L5" s="1" t="n">
+        <v>0.164</v>
+      </c>
+      <c r="M5" s="1" t="n">
+        <v>0.506</v>
+      </c>
+      <c r="N5" s="1" t="n">
+        <v>0.232</v>
+      </c>
+      <c r="O5" s="1" t="n">
+        <v>0.098</v>
+      </c>
+      <c r="P5" s="1" t="n">
+        <v>0.164</v>
+      </c>
+      <c r="Q5" s="1" t="n">
+        <v>0.506</v>
+      </c>
+      <c r="R5" s="1" t="n">
+        <v>0.232</v>
+      </c>
+      <c r="S5" s="1" t="n">
+        <v>0.098</v>
+      </c>
+      <c r="T5" s="1" t="n">
+        <v>0.164</v>
+      </c>
+      <c r="U5" s="1" t="n">
         <v>0.738</v>
       </c>
-      <c r="V5" s="0" t="n">
+      <c r="V5" s="1" t="n">
         <v>0.262</v>
       </c>
-      <c r="W5" s="0" t="n">
+      <c r="W5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="X5" s="0" t="n">
+      <c r="X5" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>1100056</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>0.442</v>
-      </c>
-      <c r="C6" s="0" t="n">
+      <c r="B6" s="1" t="n">
+        <v>0.442</v>
+      </c>
+      <c r="C6" s="1" t="n">
         <v>0.347</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="1" t="n">
         <v>0.211</v>
       </c>
-      <c r="E6" s="0" t="n">
-        <v>0.442</v>
-      </c>
-      <c r="F6" s="0" t="s">
+      <c r="E6" s="1" t="n">
+        <v>0.442</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="G6" s="1" t="n">
         <v>0.558</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="H6" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I6" s="0" t="n">
-        <v>0.506</v>
-      </c>
-      <c r="J6" s="0" t="n">
-        <v>0.232</v>
-      </c>
-      <c r="K6" s="0" t="n">
-        <v>0.098</v>
-      </c>
-      <c r="L6" s="0" t="n">
-        <v>0.164</v>
-      </c>
-      <c r="M6" s="0" t="n">
-        <v>0.506</v>
-      </c>
-      <c r="N6" s="0" t="n">
-        <v>0.232</v>
-      </c>
-      <c r="O6" s="0" t="n">
-        <v>0.098</v>
-      </c>
-      <c r="P6" s="0" t="n">
-        <v>0.164</v>
-      </c>
-      <c r="Q6" s="0" t="n">
-        <v>0.506</v>
-      </c>
-      <c r="R6" s="0" t="n">
-        <v>0.232</v>
-      </c>
-      <c r="S6" s="0" t="n">
-        <v>0.098</v>
-      </c>
-      <c r="T6" s="0" t="n">
-        <v>0.164</v>
-      </c>
-      <c r="U6" s="0" t="n">
+      <c r="I6" s="1" t="n">
+        <v>0.506</v>
+      </c>
+      <c r="J6" s="1" t="n">
+        <v>0.232</v>
+      </c>
+      <c r="K6" s="1" t="n">
+        <v>0.098</v>
+      </c>
+      <c r="L6" s="1" t="n">
+        <v>0.164</v>
+      </c>
+      <c r="M6" s="1" t="n">
+        <v>0.506</v>
+      </c>
+      <c r="N6" s="1" t="n">
+        <v>0.232</v>
+      </c>
+      <c r="O6" s="1" t="n">
+        <v>0.098</v>
+      </c>
+      <c r="P6" s="1" t="n">
+        <v>0.164</v>
+      </c>
+      <c r="Q6" s="1" t="n">
+        <v>0.506</v>
+      </c>
+      <c r="R6" s="1" t="n">
+        <v>0.232</v>
+      </c>
+      <c r="S6" s="1" t="n">
+        <v>0.098</v>
+      </c>
+      <c r="T6" s="1" t="n">
+        <v>0.164</v>
+      </c>
+      <c r="U6" s="1" t="n">
         <v>0.738</v>
       </c>
-      <c r="V6" s="0" t="n">
+      <c r="V6" s="1" t="n">
         <v>0.262</v>
       </c>
-      <c r="W6" s="0" t="s">
+      <c r="W6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="X6" s="0" t="s">
+      <c r="X6" s="1" t="s">
         <v>17</v>
       </c>
     </row>

--- a/data/input/data_ground_truth_01/proporcionalidades.xlsx
+++ b/data/input/data_ground_truth_01/proporcionalidades.xlsx
@@ -283,7 +283,7 @@
   <dimension ref="A1:X6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+      <selection pane="topLeft" activeCell="L7" activeCellId="0" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -399,7 +399,7 @@
         <v>0.347</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>0.211</v>
+        <v>887</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>0.442</v>
@@ -645,7 +645,7 @@
         <v>0.098</v>
       </c>
       <c r="L6" s="1" t="n">
-        <v>0.164</v>
+        <v>35</v>
       </c>
       <c r="M6" s="1" t="n">
         <v>0.506</v>

--- a/data/input/data_ground_truth_01/proporcionalidades.xlsx
+++ b/data/input/data_ground_truth_01/proporcionalidades.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="test" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="test" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -83,7 +83,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -104,6 +104,21 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -148,13 +163,21 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -169,222 +192,133 @@
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
-  <a:themeElements>
-    <a:clrScheme name="LibreOffice">
-      <a:dk1>
-        <a:srgbClr val="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:srgbClr val="ffffff"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="000000"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="ffffff"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="18a303"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="0369a3"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="a33e03"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8e03a3"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="c99c00"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="c9211e"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000ee"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="551a8b"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme>
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:X6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L7" activeCellId="0" sqref="L7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.36328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1025" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="1" width="16.34"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="1" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="V1" s="2"/>
+      <c r="W1" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="X1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="R2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="S2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="T2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="U2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="V2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="W2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="X2" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -399,7 +333,7 @@
         <v>0.347</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>887</v>
+        <v>0.211</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>0.442</v>
@@ -645,7 +579,7 @@
         <v>0.098</v>
       </c>
       <c r="L6" s="1" t="n">
-        <v>35</v>
+        <v>0.164</v>
       </c>
       <c r="M6" s="1" t="n">
         <v>0.506</v>
